--- a/data/trans_orig/P58-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P58-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24771</v>
+        <v>23905</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52697</v>
+        <v>53837</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07567689139389794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05228356910831672</v>
+        <v>0.05045657929028802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.111227868797607</v>
+        <v>0.1136345528187518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>11456</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4846</v>
+        <v>4991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22182</v>
+        <v>22596</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03735355188417985</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01580034535292865</v>
+        <v>0.0162758747150655</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07232939819235995</v>
+        <v>0.07368002948666427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -786,19 +786,19 @@
         <v>47310</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33692</v>
+        <v>33524</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64991</v>
+        <v>66858</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06061774163920998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04316989819264663</v>
+        <v>0.04295409271232021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08327279558517277</v>
+        <v>0.08566487071486729</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>56449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41176</v>
+        <v>41280</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75646</v>
+        <v>75784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1191477749888854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08691053882655768</v>
+        <v>0.08713061024402265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1596668384981096</v>
+        <v>0.159957080992024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -836,19 +836,19 @@
         <v>33547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22286</v>
+        <v>23054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45674</v>
+        <v>45647</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1093888282976623</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07266876407978026</v>
+        <v>0.07517339783147975</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1489299116067273</v>
+        <v>0.1488439588154257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -857,19 +857,19 @@
         <v>89997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70661</v>
+        <v>70402</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115037</v>
+        <v>112131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.115312998543219</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09053777774486416</v>
+        <v>0.09020673738629179</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1473964110110819</v>
+        <v>0.1436740542566582</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>381473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>361277</v>
+        <v>359112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>401238</v>
+        <v>400932</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8051753336172166</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7625491212622399</v>
+        <v>0.7579779363455214</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.84689392428122</v>
+        <v>0.8462470549724757</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>262</v>
@@ -907,19 +907,19 @@
         <v>261677</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>247830</v>
+        <v>247343</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>274435</v>
+        <v>274754</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8532576198181578</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8081056278306719</v>
+        <v>0.806519149754506</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8948584269165615</v>
+        <v>0.8958993055112715</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>659</v>
@@ -928,19 +928,19 @@
         <v>643151</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>617425</v>
+        <v>616068</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>669430</v>
+        <v>664978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8240692598175711</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7911071172040707</v>
+        <v>0.7893686173770493</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8577416759561686</v>
+        <v>0.8520365764146244</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>22632</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13204</v>
+        <v>13089</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37044</v>
+        <v>37075</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06167778064667883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0359843885657138</v>
+        <v>0.0356715477709996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1009564089438287</v>
+        <v>0.1010393198246831</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1053,19 +1053,19 @@
         <v>24307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14457</v>
+        <v>14327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38612</v>
+        <v>37159</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0653645605115873</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03887682098142767</v>
+        <v>0.0385265844192797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1038322406452652</v>
+        <v>0.09992671575054062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1074,19 +1074,19 @@
         <v>46938</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31982</v>
+        <v>32292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67052</v>
+        <v>65055</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06353347321300309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04328954962239925</v>
+        <v>0.04370922173589008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09075835006278507</v>
+        <v>0.08805522860273272</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>56323</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40079</v>
+        <v>41706</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>73864</v>
+        <v>75311</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1534964948023677</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1092263784625855</v>
+        <v>0.1136612015590752</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2012997157023475</v>
+        <v>0.2052453391193641</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -1124,19 +1124,19 @@
         <v>45140</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33478</v>
+        <v>32848</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58842</v>
+        <v>60034</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1213879099855456</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09002725508601925</v>
+        <v>0.08833215533367988</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1582342442334921</v>
+        <v>0.1614399412064655</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>71</v>
@@ -1145,19 +1145,19 @@
         <v>101463</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>81641</v>
+        <v>80305</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>125972</v>
+        <v>127474</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1373350573574856</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1105051531850943</v>
+        <v>0.1086960148074182</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1705097190222182</v>
+        <v>0.1725423026178796</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>287979</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>268088</v>
+        <v>265815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>306227</v>
+        <v>305346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7848257245509536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7306162342627108</v>
+        <v>0.7244212705035762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8345573600053038</v>
+        <v>0.8321557126981174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>309</v>
@@ -1195,19 +1195,19 @@
         <v>302418</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>284478</v>
+        <v>286037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>316712</v>
+        <v>318247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8132475295028672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7650023204651214</v>
+        <v>0.7691967583604553</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8516842915403059</v>
+        <v>0.8558134558584757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>612</v>
@@ -1216,19 +1216,19 @@
         <v>590398</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>563417</v>
+        <v>563613</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>615427</v>
+        <v>613098</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7991314694295113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7626124565608172</v>
+        <v>0.7628769550607416</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8330098186482552</v>
+        <v>0.82985698558298</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>27132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17279</v>
+        <v>16133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40607</v>
+        <v>40864</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05002270329935105</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0318572366544746</v>
+        <v>0.02974423466845992</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07486674030126696</v>
+        <v>0.07534012595831074</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>6945</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17089</v>
+        <v>16475</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04139542616883315</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01061386282360998</v>
+        <v>0.01054835659268903</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1018521647354342</v>
+        <v>0.09819018491692844</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -1362,19 +1362,19 @@
         <v>34077</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21932</v>
+        <v>22177</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>49226</v>
+        <v>49998</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04798446013854185</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03088311106734707</v>
+        <v>0.03122779042834593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06931584004817465</v>
+        <v>0.07040286648812728</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>52599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36648</v>
+        <v>37056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70542</v>
+        <v>70220</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09697729154901778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06756862167235735</v>
+        <v>0.06831906238440054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1300573983203686</v>
+        <v>0.1294635057368717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1412,19 +1412,19 @@
         <v>18475</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11262</v>
+        <v>10761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28981</v>
+        <v>28328</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1101154010349859</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06712315167749834</v>
+        <v>0.06413692016443444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1727315212479933</v>
+        <v>0.1688393785549175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1433,19 +1433,19 @@
         <v>71075</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54868</v>
+        <v>53812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91037</v>
+        <v>91314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1000812444417573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07725981266689042</v>
+        <v>0.07577358025468953</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1281908416647106</v>
+        <v>0.1285808235630461</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>462658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>440950</v>
+        <v>440969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>481077</v>
+        <v>480888</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8530000051516312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8129780460713114</v>
+        <v>0.8130126027486014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.886958539400753</v>
+        <v>0.8866108104798257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -1483,19 +1483,19 @@
         <v>142361</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>131281</v>
+        <v>130824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151741</v>
+        <v>151972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.848489172796181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7824493668606398</v>
+        <v>0.7797266843506403</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9043936556540798</v>
+        <v>0.905768818362791</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>626</v>
@@ -1504,19 +1504,19 @@
         <v>605019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>581083</v>
+        <v>580388</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>624397</v>
+        <v>626158</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8519342954197008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8182299128674991</v>
+        <v>0.8172511638057257</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8792203034118398</v>
+        <v>0.8817008133314665</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>65267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48011</v>
+        <v>48794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85224</v>
+        <v>88342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05270510182448539</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03877099428288197</v>
+        <v>0.03940295117750044</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06882162792568032</v>
+        <v>0.07133955472463424</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1629,19 +1629,19 @@
         <v>66674</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49512</v>
+        <v>49546</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86202</v>
+        <v>89046</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09334369921693728</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06931637078970429</v>
+        <v>0.06936510873637297</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.120682293589236</v>
+        <v>0.12466451809999</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1650,19 +1650,19 @@
         <v>131941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107596</v>
+        <v>107462</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162732</v>
+        <v>159459</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0675710553225682</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05510342569218677</v>
+        <v>0.05503495916188585</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08334040509901994</v>
+        <v>0.08166424544471065</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>73374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54390</v>
+        <v>55508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96762</v>
+        <v>98978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05925182429656094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04392182226855307</v>
+        <v>0.04482479981812398</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07813869389339798</v>
+        <v>0.07992837845795403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -1700,19 +1700,19 @@
         <v>46407</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33397</v>
+        <v>32904</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61609</v>
+        <v>62210</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06496980710439736</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04675520631899234</v>
+        <v>0.04606520611939166</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0862526848005558</v>
+        <v>0.08709462905677674</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -1721,19 +1721,19 @@
         <v>119781</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>97106</v>
+        <v>96848</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145550</v>
+        <v>146710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06134351229709025</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04973108639947981</v>
+        <v>0.04959919996261084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07454100731896714</v>
+        <v>0.07513488634932679</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>1099694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1068607</v>
+        <v>1071109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1123395</v>
+        <v>1125888</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8880430738789536</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8629394897823829</v>
+        <v>0.8649594410093896</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9071825614271523</v>
+        <v>0.9091958187959663</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>612</v>
@@ -1771,19 +1771,19 @@
         <v>601204</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>578966</v>
+        <v>578317</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>622801</v>
+        <v>622448</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8416864936786653</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8105527310334726</v>
+        <v>0.8096443076508676</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.87192220293015</v>
+        <v>0.8714279890221515</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1751</v>
@@ -1792,19 +1792,19 @@
         <v>1700899</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1667286</v>
+        <v>1662057</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1736650</v>
+        <v>1732103</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8710854323803415</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8538710343780106</v>
+        <v>0.8511931066600666</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8893945444114225</v>
+        <v>0.8870659811029293</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>38395</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26222</v>
+        <v>25316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56770</v>
+        <v>55133</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1095273068841121</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07480274844430752</v>
+        <v>0.07221751363174819</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1619439660674919</v>
+        <v>0.1572731305799905</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -1917,19 +1917,19 @@
         <v>68138</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50138</v>
+        <v>51916</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87204</v>
+        <v>88396</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1198034923742774</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08815472825817687</v>
+        <v>0.09128033935051803</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1533248987622592</v>
+        <v>0.1554216368140696</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -1938,19 +1938,19 @@
         <v>106534</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85624</v>
+        <v>84848</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>131109</v>
+        <v>130601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.115884920911407</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0931393408611363</v>
+        <v>0.09229523812663981</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1426174475988115</v>
+        <v>0.1420650309137382</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>19904</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11102</v>
+        <v>10005</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32904</v>
+        <v>31189</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05677971125875472</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03166984015199598</v>
+        <v>0.02854003544522036</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0938637440860845</v>
+        <v>0.08897031442467714</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1988,19 +1988,19 @@
         <v>32146</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20927</v>
+        <v>22086</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45843</v>
+        <v>47153</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05652080002256312</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03679437217846746</v>
+        <v>0.03883307014554483</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08060261322590372</v>
+        <v>0.08290581124613282</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -2009,19 +2009,19 @@
         <v>52051</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36757</v>
+        <v>36957</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69460</v>
+        <v>69235</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05661952947645706</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03998375621779827</v>
+        <v>0.04020135028017502</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07555640173466627</v>
+        <v>0.07531240452702329</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>292255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>271605</v>
+        <v>274693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>307648</v>
+        <v>308319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8336929818571331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7747867269892025</v>
+        <v>0.783594165073038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8776037517749812</v>
+        <v>0.8795179734283453</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>468</v>
@@ -2059,19 +2059,19 @@
         <v>468467</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>447349</v>
+        <v>447478</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>489159</v>
+        <v>487740</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8236757076031594</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7865451108764524</v>
+        <v>0.7867722564349977</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8600560918655369</v>
+        <v>0.85756149734915</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>771</v>
@@ -2080,19 +2080,19 @@
         <v>760722</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>731747</v>
+        <v>732802</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>785127</v>
+        <v>785280</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8274955496121359</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7959762087033843</v>
+        <v>0.7971242410771706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8540417518978175</v>
+        <v>0.854208463659845</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>15136</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7118</v>
+        <v>7513</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25330</v>
+        <v>25871</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05075685146400194</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02387127815781585</v>
+        <v>0.02519286987421221</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0849410616390758</v>
+        <v>0.08675820220750842</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -2205,19 +2205,19 @@
         <v>47084</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>33074</v>
+        <v>33119</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66707</v>
+        <v>67450</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03770440455619174</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02648575694792266</v>
+        <v>0.02652144679757419</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05341891129043964</v>
+        <v>0.05401360144070911</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -2226,19 +2226,19 @@
         <v>62219</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45675</v>
+        <v>43949</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84104</v>
+        <v>82098</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04022046596708446</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02952554642199901</v>
+        <v>0.02840992194662464</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0543672753069411</v>
+        <v>0.05307066053821977</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>12847</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6270</v>
+        <v>6303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25063</v>
+        <v>23587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04308129461826041</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02102548093876818</v>
+        <v>0.02113507407077668</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08404578630455745</v>
+        <v>0.07909724029300153</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -2276,19 +2276,19 @@
         <v>73919</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57662</v>
+        <v>58302</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92181</v>
+        <v>92314</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05919397117341619</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04617556970363097</v>
+        <v>0.04668812204574647</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07381802295018346</v>
+        <v>0.07392455961820714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -2297,19 +2297,19 @@
         <v>86766</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68107</v>
+        <v>68222</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110449</v>
+        <v>106835</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05608800307464039</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04402633154659584</v>
+        <v>0.04410090437823535</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0713976236176086</v>
+        <v>0.06906133648924076</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>270218</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>256477</v>
+        <v>255795</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>281960</v>
+        <v>280677</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9061618539177376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8600799943765584</v>
+        <v>0.8577952734494363</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9455382678730042</v>
+        <v>0.9412351175373872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1142</v>
@@ -2347,19 +2347,19 @@
         <v>1127757</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1103266</v>
+        <v>1102897</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1149126</v>
+        <v>1149441</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9031016242703921</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8834890487043221</v>
+        <v>0.8831933545418804</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9202133924822427</v>
+        <v>0.9204661251691348</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1430</v>
@@ -2368,19 +2368,19 @@
         <v>1397975</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1368218</v>
+        <v>1369856</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1421898</v>
+        <v>1421967</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9036915309582751</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8844560466768524</v>
+        <v>0.8855148641554217</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9191564960983638</v>
+        <v>0.9192008502287884</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>204415</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>170093</v>
+        <v>172780</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>240454</v>
+        <v>240683</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06250860442407771</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05201311236961347</v>
+        <v>0.05283472448210893</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07352900856423959</v>
+        <v>0.07359898798550633</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>141</v>
@@ -2493,19 +2493,19 @@
         <v>224604</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>189054</v>
+        <v>193598</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>263511</v>
+        <v>261507</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06648779417894671</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05596429129651012</v>
+        <v>0.05730945843724256</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07800521928133615</v>
+        <v>0.07741187765406035</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>268</v>
@@ -2514,19 +2514,19 @@
         <v>429019</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>377628</v>
+        <v>383116</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>476473</v>
+        <v>480100</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0645304999534846</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0568005266663057</v>
+        <v>0.05762596554835373</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07166827481639734</v>
+        <v>0.07221374430106425</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>271497</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>234910</v>
+        <v>235269</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>311451</v>
+        <v>311392</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08302172563606736</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07183378249827517</v>
+        <v>0.07194340800732379</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09523942076473987</v>
+        <v>0.09522144711457492</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>210</v>
@@ -2564,19 +2564,19 @@
         <v>249635</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>218902</v>
+        <v>218764</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>282473</v>
+        <v>283946</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07389752841441975</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06479986661273431</v>
+        <v>0.06475904794577635</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08361839870241837</v>
+        <v>0.0840544084486699</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>371</v>
@@ -2585,19 +2585,19 @@
         <v>521132</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>472543</v>
+        <v>471463</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>580974</v>
+        <v>573124</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07838556231932614</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07107715835684715</v>
+        <v>0.07091470366870939</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08738667772251782</v>
+        <v>0.08620595387952081</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>2794278</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2742146</v>
+        <v>2746204</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2844208</v>
+        <v>2841481</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.854469669939855</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8385279303290547</v>
+        <v>0.8397688006257381</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8697379761030035</v>
+        <v>0.8689040634296448</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2937</v>
@@ -2635,19 +2635,19 @@
         <v>2903885</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2856614</v>
+        <v>2856671</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2948474</v>
+        <v>2948760</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8596146774066336</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8456214482935956</v>
+        <v>0.8456382982152257</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8728141491596286</v>
+        <v>0.8728986508096235</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5849</v>
@@ -2656,19 +2656,19 @@
         <v>5698163</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5626032</v>
+        <v>5630553</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5764589</v>
+        <v>5762780</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8570839377271893</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8462344701337924</v>
+        <v>0.8469143867450638</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8670753686665886</v>
+        <v>0.8668032099669672</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>14272</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7764</v>
+        <v>7607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24628</v>
+        <v>23808</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03264390522555003</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0177583598973679</v>
+        <v>0.01739845845704627</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05633030282216662</v>
+        <v>0.05445532442729343</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3023,19 +3023,19 @@
         <v>22816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14424</v>
+        <v>13268</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35329</v>
+        <v>33046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07255633952449266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04586964404768733</v>
+        <v>0.04219454063363312</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1123497250787161</v>
+        <v>0.1050914482195134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -3044,19 +3044,19 @@
         <v>37088</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26020</v>
+        <v>25190</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52131</v>
+        <v>51251</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04934101657164734</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03461712390330059</v>
+        <v>0.0335124221263669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06935407839480207</v>
+        <v>0.06818374922314049</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>65329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47845</v>
+        <v>45966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88171</v>
+        <v>87826</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1494232043755127</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1094317950640887</v>
+        <v>0.1051335363406874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2016661876475202</v>
+        <v>0.2008780871879788</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -3094,19 +3094,19 @@
         <v>60395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44485</v>
+        <v>43465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77384</v>
+        <v>79309</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1920642537038947</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1414687289582371</v>
+        <v>0.1382224770797967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2460909007976472</v>
+        <v>0.2522127951421974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -3115,19 +3115,19 @@
         <v>125725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101662</v>
+        <v>99935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155217</v>
+        <v>152885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1672618143489786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1352489716587962</v>
+        <v>0.1329509007557459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2064979546555</v>
+        <v>0.2033956813950026</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>357609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>334076</v>
+        <v>333717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>376420</v>
+        <v>377100</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8179328903989374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7641081133913237</v>
+        <v>0.763286585753934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8609571173390789</v>
+        <v>0.8625131105718293</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>231</v>
@@ -3165,19 +3165,19 @@
         <v>231243</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>211587</v>
+        <v>211731</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>249062</v>
+        <v>248487</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7353794067716126</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6728717417418295</v>
+        <v>0.6733294243303741</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7920470505057927</v>
+        <v>0.7902182244216085</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>593</v>
@@ -3186,19 +3186,19 @@
         <v>588852</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>559657</v>
+        <v>560109</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>616555</v>
+        <v>615359</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7833971690793741</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7445565010565067</v>
+        <v>0.7451571619695749</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8202528129707251</v>
+        <v>0.8186614043855638</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>18104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11251</v>
+        <v>10704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29624</v>
+        <v>28762</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04322850483157402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02686392514170478</v>
+        <v>0.02555874432566709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07073500509706331</v>
+        <v>0.06867705465424838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3311,19 +3311,19 @@
         <v>16765</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9438</v>
+        <v>9539</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25730</v>
+        <v>26529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04959773386158645</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0279217755995068</v>
+        <v>0.02821973161918921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07612077028552745</v>
+        <v>0.0784862332487367</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -3332,19 +3332,19 @@
         <v>34869</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23555</v>
+        <v>23685</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49786</v>
+        <v>48352</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04607317605746642</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03112416720173662</v>
+        <v>0.03129637542717721</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06578396589347896</v>
+        <v>0.06388998624378481</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>81931</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60686</v>
+        <v>63234</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>105050</v>
+        <v>106246</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1956343374421373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1449051334324473</v>
+        <v>0.150990139649215</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2508380666696023</v>
+        <v>0.2536925373461542</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -3382,19 +3382,19 @@
         <v>64649</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47450</v>
+        <v>48806</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>85855</v>
+        <v>85149</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1912635011499217</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1403788444688626</v>
+        <v>0.144392412578875</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2540003418927283</v>
+        <v>0.251911550097828</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>74</v>
@@ -3403,19 +3403,19 @@
         <v>146580</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>121319</v>
+        <v>120455</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>175918</v>
+        <v>177173</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1936822028627457</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1603034939815281</v>
+        <v>0.1591624561054701</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2324472437749931</v>
+        <v>0.2341054144023497</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>318762</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>294100</v>
+        <v>295874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>339646</v>
+        <v>339085</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7611371577262886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7022490832788406</v>
+        <v>0.7064857199742591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8110029636496575</v>
+        <v>0.8096646137998562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -3453,19 +3453,19 @@
         <v>256597</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>235743</v>
+        <v>236640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275173</v>
+        <v>275417</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7591387649884919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6974432039524479</v>
+        <v>0.7000945713280632</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8140953286732163</v>
+        <v>0.8148170517275888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>578</v>
@@ -3474,19 +3474,19 @@
         <v>575359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>543774</v>
+        <v>546153</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>601867</v>
+        <v>603913</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7602446210797879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7185096035474526</v>
+        <v>0.7216531025039012</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7952705337438564</v>
+        <v>0.7979733256598455</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>32455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21683</v>
+        <v>21260</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48812</v>
+        <v>45731</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05156353749693185</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03444963330927694</v>
+        <v>0.0337774296191039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07755131654452317</v>
+        <v>0.07265596377482891</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -3599,19 +3599,19 @@
         <v>13238</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7117</v>
+        <v>7322</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22810</v>
+        <v>23065</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05089160705094707</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.027357962572947</v>
+        <v>0.02814571514826638</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08768789739588204</v>
+        <v>0.08866868375419291</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -3620,19 +3620,19 @@
         <v>45693</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33413</v>
+        <v>33135</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64132</v>
+        <v>61779</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05136704487279601</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03756173683301305</v>
+        <v>0.03724921253428599</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07209549772138812</v>
+        <v>0.06944980692312246</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>68547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48404</v>
+        <v>48975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90081</v>
+        <v>93510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1089065185789046</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07690242572934658</v>
+        <v>0.0778108983211059</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1431182682168008</v>
+        <v>0.1485659396434832</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3670,19 +3670,19 @@
         <v>18753</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9518</v>
+        <v>9718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31941</v>
+        <v>32073</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07209073906213244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03659028194597311</v>
+        <v>0.03735829075164119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1227892153616378</v>
+        <v>0.1232968662702973</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -3691,19 +3691,19 @@
         <v>87300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63945</v>
+        <v>65417</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112187</v>
+        <v>113757</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0981404799657042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0718850783201767</v>
+        <v>0.07353967585878335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1261173409725914</v>
+        <v>0.1278821166843516</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>528413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>505127</v>
+        <v>503094</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>551668</v>
+        <v>551209</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8395299439241636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.80253350418532</v>
+        <v>0.7993037554445985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8764775722204371</v>
+        <v>0.8757482181875849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>223</v>
@@ -3741,19 +3741,19 @@
         <v>228138</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213811</v>
+        <v>213783</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239360</v>
+        <v>239384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8770176538869205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8219439688336732</v>
+        <v>0.8218337204816752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9201603320441742</v>
+        <v>0.9202499865857676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>756</v>
@@ -3762,19 +3762,19 @@
         <v>756550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>728115</v>
+        <v>727356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>781672</v>
+        <v>781638</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8504924751614998</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8185265150574567</v>
+        <v>0.8176730169636217</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8787335413537452</v>
+        <v>0.878695338608482</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>82030</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63332</v>
+        <v>63711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103793</v>
+        <v>102454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07077605737821714</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05464297822801467</v>
+        <v>0.05497038303649254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08955329141077266</v>
+        <v>0.08839785915919766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -3887,19 +3887,19 @@
         <v>67840</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51902</v>
+        <v>53334</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85485</v>
+        <v>86977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08848794039806404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06769975710503494</v>
+        <v>0.06956736663709183</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1115039994610445</v>
+        <v>0.1134494682447561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -3908,19 +3908,19 @@
         <v>149870</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>126723</v>
+        <v>124647</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>180203</v>
+        <v>175883</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07782761359606924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06580746509982194</v>
+        <v>0.06472905126444804</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09357961357529598</v>
+        <v>0.09133598558988182</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>114394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87590</v>
+        <v>89749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144152</v>
+        <v>144949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0986997915338183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07557308408136316</v>
+        <v>0.07743614040546992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1243752500634772</v>
+        <v>0.1250624503890836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -3958,19 +3958,19 @@
         <v>82918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64114</v>
+        <v>61750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107873</v>
+        <v>106147</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1081554899860959</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08362862448930801</v>
+        <v>0.08054482106433362</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1407061521244086</v>
+        <v>0.1384537696118976</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>101</v>
@@ -3979,19 +3979,19 @@
         <v>197312</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>164906</v>
+        <v>163836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234399</v>
+        <v>230746</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1024643483085315</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08563564903865201</v>
+        <v>0.08508027463931826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1217233729399583</v>
+        <v>0.1198267782803337</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>962585</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>931317</v>
+        <v>929935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>993196</v>
+        <v>994298</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8305241510879645</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.803546077642463</v>
+        <v>0.8023538675392479</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8569357668553839</v>
+        <v>0.8578861060983659</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>609</v>
@@ -4029,19 +4029,19 @@
         <v>615899</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>589638</v>
+        <v>589091</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>638620</v>
+        <v>641518</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.80335656961584</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.769102218755529</v>
+        <v>0.7683898933252208</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8329927233501854</v>
+        <v>0.8367730671685963</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1572</v>
@@ -4050,19 +4050,19 @@
         <v>1578485</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1534291</v>
+        <v>1538629</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1613549</v>
+        <v>1618066</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8197080380953993</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7967582902450032</v>
+        <v>0.7990108526987143</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.837916823368707</v>
+        <v>0.840262820597559</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>48316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33511</v>
+        <v>35488</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64210</v>
+        <v>64591</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09462719707818508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0656303753879043</v>
+        <v>0.0695021190677327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1257550901662103</v>
+        <v>0.1265011731643825</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -4175,19 +4175,19 @@
         <v>60542</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44984</v>
+        <v>46757</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76108</v>
+        <v>76820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07950085702474052</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05907174673997225</v>
+        <v>0.0614000465036177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09994147167953248</v>
+        <v>0.1008774910493449</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -4196,19 +4196,19 @@
         <v>108858</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>87636</v>
+        <v>89873</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>131227</v>
+        <v>132444</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08557219088246942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06888984600439456</v>
+        <v>0.07064816965301965</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1031564567130978</v>
+        <v>0.1041131643414957</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>14799</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6398</v>
+        <v>6497</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28524</v>
+        <v>31397</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02898412196475228</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0125299663638441</v>
+        <v>0.01272485143571446</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05586382946977102</v>
+        <v>0.06149176317917053</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -4246,19 +4246,19 @@
         <v>56785</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40722</v>
+        <v>39981</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>78085</v>
+        <v>79031</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07456721837813012</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05347393329584416</v>
+        <v>0.05250091429396569</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1025377782971647</v>
+        <v>0.1037800188666818</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -4267,19 +4267,19 @@
         <v>71584</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>51982</v>
+        <v>50809</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>96682</v>
+        <v>95223</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05627130571076681</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04086250296478779</v>
+        <v>0.03994071779273337</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0760006782825314</v>
+        <v>0.07485396170191237</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>447481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>428054</v>
+        <v>425948</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>464270</v>
+        <v>462247</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8763886809570627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8383426741227004</v>
+        <v>0.8342162964553962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9092708034485213</v>
+        <v>0.9053089457038346</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>622</v>
@@ -4317,19 +4317,19 @@
         <v>644196</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>617428</v>
+        <v>618407</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>667074</v>
+        <v>666389</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8459319245971294</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8107809429639263</v>
+        <v>0.8120665969383468</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8759740509993129</v>
+        <v>0.8750750841529563</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1065</v>
@@ -4338,19 +4338,19 @@
         <v>1091676</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1059683</v>
+        <v>1060158</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1118771</v>
+        <v>1118945</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8581565034067637</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8330070731548374</v>
+        <v>0.8333803951299583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8794556251247859</v>
+        <v>0.8795921964424873</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>14050</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7420</v>
+        <v>7615</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24151</v>
+        <v>24182</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05264385223481048</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0278013810743438</v>
+        <v>0.02853251886635168</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09049175903583016</v>
+        <v>0.09060837216215015</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -4463,19 +4463,19 @@
         <v>50174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38413</v>
+        <v>37439</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66921</v>
+        <v>67305</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04522804845567897</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03462635501890722</v>
+        <v>0.03374836908998648</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06032483023678026</v>
+        <v>0.06067070385876977</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>53</v>
@@ -4484,19 +4484,19 @@
         <v>64223</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47911</v>
+        <v>49842</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82517</v>
+        <v>83311</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04666613614527777</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03481297758398969</v>
+        <v>0.03621620347209106</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05995870120905234</v>
+        <v>0.06053543244131266</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>12211</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4191</v>
+        <v>4290</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23850</v>
+        <v>24090</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0457536582799213</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0157019224071571</v>
+        <v>0.01607485421798772</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08936404091223307</v>
+        <v>0.09026331891064258</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -4534,19 +4534,19 @@
         <v>68832</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50490</v>
+        <v>50086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94468</v>
+        <v>91578</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06204684498982383</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04551339572957008</v>
+        <v>0.04514928356915747</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08515602223912903</v>
+        <v>0.08255066415914501</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -4555,19 +4555,19 @@
         <v>81043</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60052</v>
+        <v>59943</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109112</v>
+        <v>104932</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05888723722110403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04363509909940781</v>
+        <v>0.04355619491147446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0792828785535486</v>
+        <v>0.0762458712710443</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>240621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>225923</v>
+        <v>226699</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>250573</v>
+        <v>251287</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9016024894852682</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.846527324970839</v>
+        <v>0.8494359810627757</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9388917274516542</v>
+        <v>0.9415656013076343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>965</v>
@@ -4605,19 +4605,19 @@
         <v>990345</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>962268</v>
+        <v>965159</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1012367</v>
+        <v>1013119</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8927251065544972</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.867414911926205</v>
+        <v>0.8700210514954877</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9125755541260457</v>
+        <v>0.9132538173743848</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1213</v>
@@ -4626,19 +4626,19 @@
         <v>1230967</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1201783</v>
+        <v>1205651</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1259075</v>
+        <v>1257003</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8944466266336182</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8732406640154405</v>
+        <v>0.8760518421465209</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9148708117799037</v>
+        <v>0.9133652525204862</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>209227</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>178841</v>
+        <v>179672</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>241723</v>
+        <v>239124</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06114339174727236</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05226342358737224</v>
+        <v>0.0525063252601116</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07063975918064704</v>
+        <v>0.06988024257868815</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>194</v>
@@ -4751,19 +4751,19 @@
         <v>231374</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>199675</v>
+        <v>204857</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>263608</v>
+        <v>265286</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06517347449089729</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05624453786304678</v>
+        <v>0.05770419150182035</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07425322696169026</v>
+        <v>0.0747256867228808</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>356</v>
@@ -4772,19 +4772,19 @@
         <v>440601</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>396435</v>
+        <v>397376</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>485315</v>
+        <v>483123</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06319548960690972</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05686077779493758</v>
+        <v>0.05699565202611041</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0696087472118091</v>
+        <v>0.06929437425194331</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>357212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>310669</v>
+        <v>307165</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>406804</v>
+        <v>403496</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1043896089489469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09078814820831489</v>
+        <v>0.0897643210922037</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1188820503733683</v>
+        <v>0.1179152952301797</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>190</v>
@@ -4822,19 +4822,19 @@
         <v>352332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>304886</v>
+        <v>305187</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>400619</v>
+        <v>401541</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09924495788664409</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08588027686182582</v>
+        <v>0.08596527312773471</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1128465422198144</v>
+        <v>0.1131062740924833</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>362</v>
@@ -4843,19 +4843,19 @@
         <v>709544</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>642014</v>
+        <v>648215</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>783499</v>
+        <v>780296</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1017699785082982</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09208415171373127</v>
+        <v>0.09297364059262597</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1123773776863721</v>
+        <v>0.1119179661750404</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>2855471</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2804426</v>
+        <v>2801335</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2910843</v>
+        <v>2907411</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8344669993037808</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8195498108177356</v>
+        <v>0.8186466899549204</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8506484766840762</v>
+        <v>0.8496455679064325</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2906</v>
@@ -4893,19 +4893,19 @@
         <v>2966419</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2909862</v>
+        <v>2913592</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3019728</v>
+        <v>3018789</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8355815676224586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8196506023540124</v>
+        <v>0.8207011501136459</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8505977581509245</v>
+        <v>0.8503332033763623</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5777</v>
@@ -4914,19 +4914,19 @@
         <v>5821890</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5742778</v>
+        <v>5748315</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5901672</v>
+        <v>5894758</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.835034531884792</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8236874525282183</v>
+        <v>0.8244816738484622</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8464776943329997</v>
+        <v>0.8454859660243933</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>38159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26164</v>
+        <v>26519</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53120</v>
+        <v>52683</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08892850726864922</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06097602840039682</v>
+        <v>0.06180364660225784</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1237965137440154</v>
+        <v>0.1227779079729118</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5281,19 +5281,19 @@
         <v>24254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15682</v>
+        <v>16032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36110</v>
+        <v>37001</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0698850127524759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04518645544207571</v>
+        <v>0.04619560902664888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.104047319115933</v>
+        <v>0.1066129019328374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -5302,19 +5302,19 @@
         <v>62412</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48434</v>
+        <v>47799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79827</v>
+        <v>79654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08041318875765392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0624026429660939</v>
+        <v>0.06158553657307173</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1028503535499069</v>
+        <v>0.1026279810268108</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>60902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44166</v>
+        <v>45507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79011</v>
+        <v>81111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1419326724296359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1029288988466671</v>
+        <v>0.1060552615601714</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1841357995416856</v>
+        <v>0.1890296975838898</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -5352,19 +5352,19 @@
         <v>38721</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25846</v>
+        <v>25774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55097</v>
+        <v>55747</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1115712309053408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07447119464592661</v>
+        <v>0.07426400039101345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1587566031346249</v>
+        <v>0.1606287394622609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -5373,19 +5373,19 @@
         <v>99624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>78556</v>
+        <v>77965</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122224</v>
+        <v>125054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1283565220643361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1012132575579827</v>
+        <v>0.1004513735932347</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1574752563049339</v>
+        <v>0.1611215252301209</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>330031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>308701</v>
+        <v>308789</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>351188</v>
+        <v>348891</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7691388203017149</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7194289510361938</v>
+        <v>0.7196341135731834</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8184441231726484</v>
+        <v>0.8130912985445791</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>288</v>
@@ -5423,19 +5423,19 @@
         <v>284080</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>267319</v>
+        <v>264185</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>299898</v>
+        <v>298115</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8185437563421832</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.770248959911761</v>
+        <v>0.7612196320491801</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8641232794021361</v>
+        <v>0.8589856651190015</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>619</v>
@@ -5444,19 +5444,19 @@
         <v>614111</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>588025</v>
+        <v>586193</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>639343</v>
+        <v>638506</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.79123028917801</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7576209308851556</v>
+        <v>0.7552599613591248</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8237401545576113</v>
+        <v>0.8226610990155917</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>6501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2515</v>
+        <v>2552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14026</v>
+        <v>13952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0172326867640051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006666477899275284</v>
+        <v>0.00676478281063511</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03718288709397006</v>
+        <v>0.03698436449488017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -5569,19 +5569,19 @@
         <v>30707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20671</v>
+        <v>20840</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43119</v>
+        <v>43225</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08248442313528953</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05552568820610044</v>
+        <v>0.05597951797135808</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1158254653848675</v>
+        <v>0.1161103642441827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -5590,19 +5590,19 @@
         <v>37207</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26126</v>
+        <v>26167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50773</v>
+        <v>50695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04964291842802254</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03485770681809266</v>
+        <v>0.03491300016828094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06774298261682257</v>
+        <v>0.06763828591109448</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>60524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44081</v>
+        <v>44020</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80672</v>
+        <v>80326</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.160444531147568</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1168565688179052</v>
+        <v>0.1166928367438763</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2138563336327689</v>
+        <v>0.2129370319633416</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -5640,19 +5640,19 @@
         <v>50741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35987</v>
+        <v>36238</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69267</v>
+        <v>70161</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1363000675383373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09666826586999754</v>
+        <v>0.09734205411367598</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.186066383224719</v>
+        <v>0.1884659349338932</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -5661,19 +5661,19 @@
         <v>111265</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>88082</v>
+        <v>88285</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>136890</v>
+        <v>135729</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1484520892219463</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1175215799533957</v>
+        <v>0.1177925019797372</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1826411692382039</v>
+        <v>0.1810926264723146</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>310202</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>290708</v>
+        <v>290872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>326047</v>
+        <v>328322</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8223227820884269</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7706460294447128</v>
+        <v>0.7710785823181722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8643245658392367</v>
+        <v>0.8703573660260993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>294</v>
@@ -5711,19 +5711,19 @@
         <v>290825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>271423</v>
+        <v>271742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>307675</v>
+        <v>309104</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7812155093263732</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7290957028132264</v>
+        <v>0.7299539984779836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8264774224983434</v>
+        <v>0.8303140824867239</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>607</v>
@@ -5732,19 +5732,19 @@
         <v>601028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>573784</v>
+        <v>574657</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>625108</v>
+        <v>627898</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8019049923500312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7655557732832969</v>
+        <v>0.7667207574605576</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8340335814924285</v>
+        <v>0.837755707945116</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>22730</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13173</v>
+        <v>13804</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34281</v>
+        <v>35324</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04355030752031971</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02523920277897138</v>
+        <v>0.02644972449360718</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06568408630760397</v>
+        <v>0.06768134376720157</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -5857,19 +5857,19 @@
         <v>8488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3481</v>
+        <v>3568</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16437</v>
+        <v>16860</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05109656030331463</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02095170945515212</v>
+        <v>0.02148083813978781</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09894248225033271</v>
+        <v>0.1014926034534765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -5878,19 +5878,19 @@
         <v>31218</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20419</v>
+        <v>21188</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45280</v>
+        <v>45194</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04537231068781444</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0296779157935725</v>
+        <v>0.03079466382007943</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06581039705980735</v>
+        <v>0.06568611680983756</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>51211</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37288</v>
+        <v>36897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71903</v>
+        <v>70143</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09812227485919817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07144478580603413</v>
+        <v>0.07069649511226453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.137768324811211</v>
+        <v>0.1343955858481108</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -5928,19 +5928,19 @@
         <v>23652</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13689</v>
+        <v>14307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36650</v>
+        <v>36399</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.142373814711693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08240240375504213</v>
+        <v>0.08612433624086814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2206181991498347</v>
+        <v>0.2191107721841877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -5949,19 +5949,19 @@
         <v>74863</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56014</v>
+        <v>57288</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96538</v>
+        <v>99029</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1088065771342892</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08141086878061947</v>
+        <v>0.08326245145933164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1403092667844195</v>
+        <v>0.1439306790184685</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>447973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424996</v>
+        <v>427174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>463940</v>
+        <v>465259</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8583274176204821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8143031965206787</v>
+        <v>0.8184759262512471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8889194721910769</v>
+        <v>0.89144816343834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -5999,19 +5999,19 @@
         <v>133983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119888</v>
+        <v>119407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145457</v>
+        <v>143963</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8065296249849924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7216817268103606</v>
+        <v>0.7187846463414459</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8755994214320806</v>
+        <v>0.8666037962623051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>586</v>
@@ -6020,19 +6020,19 @@
         <v>581955</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>557224</v>
+        <v>557113</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>603543</v>
+        <v>602644</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8458211121778964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8098761355137143</v>
+        <v>0.8097150736920359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8771962387290947</v>
+        <v>0.8758895357114771</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>50756</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38442</v>
+        <v>37556</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69792</v>
+        <v>68921</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04414964813146481</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03343850575880156</v>
+        <v>0.03266751820793514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06070797189760496</v>
+        <v>0.05995002357813651</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -6145,19 +6145,19 @@
         <v>68513</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53363</v>
+        <v>53087</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86340</v>
+        <v>86902</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08295781202687881</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06461352831516512</v>
+        <v>0.06428013125444298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1045429640372555</v>
+        <v>0.1052235724365086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -6166,19 +6166,19 @@
         <v>119269</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97871</v>
+        <v>97784</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142927</v>
+        <v>141552</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06037364241152689</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04954182229206438</v>
+        <v>0.04949797355108349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07234928562777529</v>
+        <v>0.07165306102608941</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>82012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63041</v>
+        <v>60236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107221</v>
+        <v>103736</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0713374927532303</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05483519477151706</v>
+        <v>0.05239576600230904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09326511001753031</v>
+        <v>0.09023324921793303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -6216,19 +6216,19 @@
         <v>80630</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62142</v>
+        <v>61143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104772</v>
+        <v>102076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09762933811091749</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07524322677983895</v>
+        <v>0.07403359190485566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1268612597950902</v>
+        <v>0.1235969291146603</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -6237,19 +6237,19 @@
         <v>162642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>136215</v>
+        <v>132198</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200366</v>
+        <v>193494</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08232896222457524</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06895182375338627</v>
+        <v>0.06691848569964284</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1014246859174368</v>
+        <v>0.09794619293310007</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>1016870</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>988689</v>
+        <v>989358</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1041567</v>
+        <v>1042193</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8845128591153049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8600000406643922</v>
+        <v>0.8605817707527185</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9059955993639225</v>
+        <v>0.9065399537028935</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>685</v>
@@ -6287,19 +6287,19 @@
         <v>676733</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>649509</v>
+        <v>651282</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>698114</v>
+        <v>700483</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8194128498622036</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7864484349085894</v>
+        <v>0.7885951589115502</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8453006852349089</v>
+        <v>0.8481697997454766</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1701</v>
@@ -6308,19 +6308,19 @@
         <v>1693603</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1654595</v>
+        <v>1659788</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1727120</v>
+        <v>1730198</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8572973953638979</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8375514811910186</v>
+        <v>0.8401804341502018</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8742634302034903</v>
+        <v>0.8758218588758222</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>59787</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44536</v>
+        <v>44017</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77195</v>
+        <v>77335</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09632159304804698</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07175009335413295</v>
+        <v>0.07091509009744022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1243672059200296</v>
+        <v>0.1245918666597835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -6433,19 +6433,19 @@
         <v>56237</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43648</v>
+        <v>42983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71746</v>
+        <v>71626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0761770998067535</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05912433280998793</v>
+        <v>0.05822370069379982</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09718421753105803</v>
+        <v>0.09702230011107388</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>99</v>
@@ -6454,19 +6454,19 @@
         <v>116025</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95294</v>
+        <v>96103</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139032</v>
+        <v>140388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08537817808380828</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07012316698344924</v>
+        <v>0.07071888642030109</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1023085037433235</v>
+        <v>0.1033062971509919</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>43781</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30004</v>
+        <v>29518</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62735</v>
+        <v>62202</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07053483414270474</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04833786375828873</v>
+        <v>0.04755583459076269</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1010710148923361</v>
+        <v>0.1002120100164954</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -6504,19 +6504,19 @@
         <v>55538</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39784</v>
+        <v>40780</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>74444</v>
+        <v>76817</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07523018768265927</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05389030946964005</v>
+        <v>0.05523898162758568</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1008387294846497</v>
+        <v>0.104053574546822</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>60</v>
@@ -6525,19 +6525,19 @@
         <v>99320</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>77192</v>
+        <v>79401</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>123776</v>
+        <v>129450</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07308556607604526</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05680290622594662</v>
+        <v>0.05842838096592422</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09108207734712272</v>
+        <v>0.09525731081110048</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>517137</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>493541</v>
+        <v>495206</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>536968</v>
+        <v>536952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8331435728092483</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7951276811332884</v>
+        <v>0.7978110396313983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8650924839634642</v>
+        <v>0.8650669118452071</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>612</v>
@@ -6575,19 +6575,19 @@
         <v>626468</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>603332</v>
+        <v>603025</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>647832</v>
+        <v>645877</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8485927125105872</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8172524461043104</v>
+        <v>0.8168365803805846</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8775313175906382</v>
+        <v>0.8748831769932334</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1137</v>
@@ -6596,19 +6596,19 @@
         <v>1143606</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1111872</v>
+        <v>1110541</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1174780</v>
+        <v>1168347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8415362558401465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8181846686780129</v>
+        <v>0.8172051987134319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8644759537696133</v>
+        <v>0.8597423792887475</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>29231</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18789</v>
+        <v>18675</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41027</v>
+        <v>42624</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.101799513730508</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06543406729578327</v>
+        <v>0.06503799853409827</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1428781568988025</v>
+        <v>0.1484400872523813</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -6721,19 +6721,19 @@
         <v>40999</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28831</v>
+        <v>29152</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55200</v>
+        <v>55503</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03789064892279686</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02664524951541611</v>
+        <v>0.02694235274221059</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05101558446095743</v>
+        <v>0.05129521589157358</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -6742,19 +6742,19 @@
         <v>70230</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53612</v>
+        <v>53377</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>88727</v>
+        <v>88270</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05129374745186203</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03915638861535675</v>
+        <v>0.03898516272883008</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06480343529186615</v>
+        <v>0.0644699442338186</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>15468</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7002</v>
+        <v>7277</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27343</v>
+        <v>28209</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05386882566120599</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02438593113661653</v>
+        <v>0.02534085885365544</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09522443135384973</v>
+        <v>0.09824014467295193</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -6792,19 +6792,19 @@
         <v>76823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57731</v>
+        <v>56965</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100079</v>
+        <v>100695</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07099956679871476</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05335427313736124</v>
+        <v>0.05264620410855269</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09249203795653922</v>
+        <v>0.0930619457744184</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -6813,19 +6813,19 @@
         <v>92291</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69210</v>
+        <v>68882</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>115136</v>
+        <v>117792</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06740687254522153</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05054865826093506</v>
+        <v>0.05030943876390664</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08409177313682467</v>
+        <v>0.08603180521604664</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>242446</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>226909</v>
+        <v>225107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>255006</v>
+        <v>255633</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.844331660608286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7902250589179797</v>
+        <v>0.7839473950932916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8880742562275923</v>
+        <v>0.8902569916353728</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>911</v>
@@ -6863,19 +6863,19 @@
         <v>964203</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>937171</v>
+        <v>937119</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>985489</v>
+        <v>985903</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8911097842784884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8661272389788076</v>
+        <v>0.8660789832961486</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9107818527054488</v>
+        <v>0.9111647628781544</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1152</v>
@@ -6884,19 +6884,19 @@
         <v>1206649</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1175773</v>
+        <v>1179138</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1233909</v>
+        <v>1236803</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8812993800029164</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8587488506775292</v>
+        <v>0.8612063540903954</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9012096766950274</v>
+        <v>0.9033233325393297</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>207163</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>176981</v>
+        <v>178135</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>238268</v>
+        <v>239096</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06118736200976634</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05227280197846949</v>
+        <v>0.05261369770123581</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07037448490771672</v>
+        <v>0.07061902682376056</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>210</v>
@@ -7009,19 +7009,19 @@
         <v>229198</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>202857</v>
+        <v>200923</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>264724</v>
+        <v>263189</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06489920615876586</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05744049582780349</v>
+        <v>0.05689304770357603</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07495886243661556</v>
+        <v>0.07452412873556367</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>367</v>
@@ -7030,19 +7030,19 @@
         <v>436361</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>399447</v>
+        <v>394654</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>482897</v>
+        <v>479248</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06308242221611141</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05774592494129159</v>
+        <v>0.05705301569260199</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06980979858717079</v>
+        <v>0.06928235511271899</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>313899</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>272726</v>
+        <v>272842</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>354448</v>
+        <v>359833</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09271269989505643</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08055168315762477</v>
+        <v>0.08058619344228833</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.104688942516764</v>
+        <v>0.1062796743115538</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>194</v>
@@ -7080,19 +7080,19 @@
         <v>326105</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>287239</v>
+        <v>286015</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>374466</v>
+        <v>369121</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09233927830347841</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08133413932624678</v>
+        <v>0.0809875718195822</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1060329914076712</v>
+        <v>0.1045196109007307</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>380</v>
@@ -7101,19 +7101,19 @@
         <v>640004</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>581639</v>
+        <v>573184</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>700828</v>
+        <v>700291</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0925220516970225</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08408444736741237</v>
+        <v>0.08286221380875478</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1013150301817266</v>
+        <v>0.1012374403684898</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>2864659</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2813986</v>
+        <v>2814250</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2910931</v>
+        <v>2917116</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8460999380951773</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8311331755887414</v>
+        <v>0.8312110748541474</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8597667060052768</v>
+        <v>0.8615935714542524</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2922</v>
@@ -7151,19 +7151,19 @@
         <v>2976293</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2925769</v>
+        <v>2923819</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3024585</v>
+        <v>3024982</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8427615155377557</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8284552676547687</v>
+        <v>0.8279029711646507</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8564357353443852</v>
+        <v>0.8565482345247486</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5802</v>
@@ -7172,19 +7172,19 @@
         <v>5840952</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5763931</v>
+        <v>5774328</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5902075</v>
+        <v>5911784</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8443955260868661</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8332610929530559</v>
+        <v>0.8347641255523555</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8532317842545206</v>
+        <v>0.8546354089092384</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>37111</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25963</v>
+        <v>25651</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52420</v>
+        <v>53320</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06739864082595963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04715237471461278</v>
+        <v>0.04658559207773485</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09520189725391683</v>
+        <v>0.09683584409876958</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -7539,19 +7539,19 @@
         <v>31791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23128</v>
+        <v>23595</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42786</v>
+        <v>42891</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0652326412079538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04745794572849236</v>
+        <v>0.04841610358138237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08779541411795175</v>
+        <v>0.08801023806724555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -7560,19 +7560,19 @@
         <v>68902</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54983</v>
+        <v>54642</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87447</v>
+        <v>85649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06638166323938204</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05297260423097993</v>
+        <v>0.05264359270950852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08424877543255282</v>
+        <v>0.08251670835895197</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>51277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39747</v>
+        <v>37985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66114</v>
+        <v>65787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09312652436870746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07218618099541894</v>
+        <v>0.06898532999935494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1200721159416204</v>
+        <v>0.1194778951498959</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -7610,19 +7610,19 @@
         <v>40639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31897</v>
+        <v>31351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51695</v>
+        <v>52055</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08338877438099461</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06545191244608305</v>
+        <v>0.06433012161838056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1060753155570501</v>
+        <v>0.1068136717099413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -7631,19 +7631,19 @@
         <v>91916</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75774</v>
+        <v>76523</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111191</v>
+        <v>110406</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08855446747687946</v>
+        <v>0.08855446747687948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07300312183998076</v>
+        <v>0.07372456309498872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1071242799407136</v>
+        <v>0.1063686049656793</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>462230</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>442542</v>
+        <v>441966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>478267</v>
+        <v>479027</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8394748348053329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8037185421262452</v>
+        <v>0.8026730104284576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8686002003243622</v>
+        <v>0.8699812677092345</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>579</v>
@@ -7681,19 +7681,19 @@
         <v>414913</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>399160</v>
+        <v>399826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>426218</v>
+        <v>427900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8513785844110516</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8190542793881601</v>
+        <v>0.820421856802224</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8745765661993494</v>
+        <v>0.8780283320200035</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1045</v>
@@ -7702,19 +7702,19 @@
         <v>877142</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>849682</v>
+        <v>849584</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>898017</v>
+        <v>896043</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8450638692837387</v>
+        <v>0.8450638692837386</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8186076809923247</v>
+        <v>0.818513374216572</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8651749643519981</v>
+        <v>0.8632733164668571</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>18423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11711</v>
+        <v>11160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29178</v>
+        <v>28032</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0381267393270433</v>
+        <v>0.03812673932704329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02423614370961298</v>
+        <v>0.02309558555374715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06038350756895389</v>
+        <v>0.05801243486684064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -7827,19 +7827,19 @@
         <v>33954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24798</v>
+        <v>25822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43258</v>
+        <v>45245</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08037595649977146</v>
+        <v>0.08037595649977147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05870291811570817</v>
+        <v>0.06112705198354318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1024006654323339</v>
+        <v>0.1071043582606925</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>67</v>
@@ -7848,19 +7848,19 @@
         <v>52377</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>39759</v>
+        <v>39657</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65273</v>
+        <v>64808</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05783367265898341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04390166717543103</v>
+        <v>0.04378822227983478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07207325606087601</v>
+        <v>0.07156009008513331</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>44848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32966</v>
+        <v>32852</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>60575</v>
+        <v>59095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09281249851130143</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06822172924980097</v>
+        <v>0.06798658195532374</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1253590739189998</v>
+        <v>0.12229601874674</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -7898,19 +7898,19 @@
         <v>27243</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19808</v>
+        <v>20133</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36483</v>
+        <v>36431</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06449065598841654</v>
+        <v>0.06449065598841655</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04689031366357855</v>
+        <v>0.04766030919318717</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08636469592470034</v>
+        <v>0.08624056675463247</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>82</v>
@@ -7919,19 +7919,19 @@
         <v>72091</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>56368</v>
+        <v>58785</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>88468</v>
+        <v>91557</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07960191853405926</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06224073941824428</v>
+        <v>0.06490978101941568</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09768506025267611</v>
+        <v>0.1010959843532472</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>419941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>402869</v>
+        <v>403532</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>434484</v>
+        <v>434717</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8690607621616554</v>
+        <v>0.8690607621616552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8337309850616811</v>
+        <v>0.8351041494169585</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8991581463733824</v>
+        <v>0.8996401736659498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>499</v>
@@ -7969,19 +7969,19 @@
         <v>361237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>349023</v>
+        <v>347978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>372518</v>
+        <v>372477</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8551333875118118</v>
+        <v>0.8551333875118119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8262195183121696</v>
+        <v>0.823744119748034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8818363544843146</v>
+        <v>0.8817410078095488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>921</v>
@@ -7990,19 +7990,19 @@
         <v>781178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>762192</v>
+        <v>758837</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>800556</v>
+        <v>801362</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8625644088069574</v>
+        <v>0.8625644088069573</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8416004513103316</v>
+        <v>0.8378956919633691</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8839609716181791</v>
+        <v>0.8848515016489944</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>36567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23982</v>
+        <v>25190</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51782</v>
+        <v>51409</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07772427452493003</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05097528681949247</v>
+        <v>0.05354215187818848</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1100647859024138</v>
+        <v>0.1092705544086967</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -8115,19 +8115,19 @@
         <v>12604</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7670</v>
+        <v>7705</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20283</v>
+        <v>19561</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06722153124036413</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04090915441522879</v>
+        <v>0.04109567308954531</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1081755605746219</v>
+        <v>0.104325161797913</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>46</v>
@@ -8136,19 +8136,19 @@
         <v>49171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36618</v>
+        <v>36004</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67528</v>
+        <v>64850</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07473136998123824</v>
+        <v>0.07473136998123825</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05565328576779962</v>
+        <v>0.05471932741900155</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1026303946197396</v>
+        <v>0.0985614017610162</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>18608</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10746</v>
+        <v>11638</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28942</v>
+        <v>30092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03955159004812216</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02284108900505966</v>
+        <v>0.02473747079587163</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06151632899042334</v>
+        <v>0.06396121477018742</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -8186,19 +8186,19 @@
         <v>11336</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6652</v>
+        <v>6927</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17297</v>
+        <v>18228</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06045762799074607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03547732992858383</v>
+        <v>0.03694271320694915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09225080627729883</v>
+        <v>0.09721723476080638</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -8207,19 +8207,19 @@
         <v>29944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21378</v>
+        <v>20970</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42374</v>
+        <v>42087</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04550905984946639</v>
+        <v>0.0455090598494664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03249164962465373</v>
+        <v>0.03187080582542618</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06440133156501007</v>
+        <v>0.06396468130414015</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>415296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>398119</v>
+        <v>397887</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>429143</v>
+        <v>429114</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8827241354269477</v>
+        <v>0.8827241354269478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8462130130870624</v>
+        <v>0.8457201414288669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9121555737492028</v>
+        <v>0.9120946654012807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -8257,19 +8257,19 @@
         <v>163558</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155488</v>
+        <v>155159</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170782</v>
+        <v>170833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8723208407688897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8292802571743506</v>
+        <v>0.8275298671811964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9108523862401641</v>
+        <v>0.9111234017585585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>694</v>
@@ -8278,19 +8278,19 @@
         <v>578854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>558826</v>
+        <v>561701</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>593849</v>
+        <v>594671</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8797595701692953</v>
+        <v>0.8797595701692954</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8493202396281354</v>
+        <v>0.85368970131301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9025493127039796</v>
+        <v>0.9037993833214001</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>92346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72416</v>
+        <v>72204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116267</v>
+        <v>116366</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0816739893047445</v>
+        <v>0.08167398930474451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06404753781703901</v>
+        <v>0.06385977477562596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.102830722217809</v>
+        <v>0.1029189021907811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>108</v>
@@ -8403,19 +8403,19 @@
         <v>82011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67517</v>
+        <v>68403</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98501</v>
+        <v>98878</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09539547934924193</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07853627880010892</v>
+        <v>0.07956631625362527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1145765236258851</v>
+        <v>0.1150158696334384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>183</v>
@@ -8424,19 +8424,19 @@
         <v>174356</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>148866</v>
+        <v>149589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201110</v>
+        <v>201773</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08760071077788499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07479366056733371</v>
+        <v>0.07515696681675615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1010421225895745</v>
+        <v>0.101375528564621</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>33924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22897</v>
+        <v>24169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48342</v>
+        <v>48451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03000386645734459</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02025119108521421</v>
+        <v>0.02137595882828664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04275566914876749</v>
+        <v>0.04285212502938767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -8474,19 +8474,19 @@
         <v>46039</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35485</v>
+        <v>34802</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59262</v>
+        <v>57432</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05355271210150334</v>
+        <v>0.05355271210150335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04127673984565961</v>
+        <v>0.04048187665045453</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06893379915467525</v>
+        <v>0.06680558260824336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -8495,19 +8495,19 @@
         <v>79963</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63962</v>
+        <v>64608</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96373</v>
+        <v>98118</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0401753164015054</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03213592508669403</v>
+        <v>0.03246054694674767</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04842000217419368</v>
+        <v>0.0492967179072096</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>1004391</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>977741</v>
+        <v>978662</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1029240</v>
+        <v>1027137</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8883221442379108</v>
+        <v>0.8883221442379109</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8647520820430353</v>
+        <v>0.8655666456567542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9102997557284807</v>
+        <v>0.9084394456734143</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1053</v>
@@ -8545,19 +8545,19 @@
         <v>731643</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>711761</v>
+        <v>713011</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>747972</v>
+        <v>749293</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8510518085492547</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8279247187009547</v>
+        <v>0.8293784907728388</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8700458493495273</v>
+        <v>0.8715821242019728</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2063</v>
@@ -8566,19 +8566,19 @@
         <v>1736034</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1703378</v>
+        <v>1706204</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1765143</v>
+        <v>1767496</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8722239728206097</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.855816578962777</v>
+        <v>0.8572365901343609</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8868488745053651</v>
+        <v>0.8880307306318681</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>93467</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74297</v>
+        <v>72895</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>117824</v>
+        <v>117758</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1645648322245142</v>
+        <v>0.1645648322245141</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.130812818570567</v>
+        <v>0.128344451264072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2074489243703181</v>
+        <v>0.2073341792903496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -8691,19 +8691,19 @@
         <v>75852</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62412</v>
+        <v>62195</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94141</v>
+        <v>92756</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09165828935391017</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07541730675577565</v>
+        <v>0.0751556192577999</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1137577509745599</v>
+        <v>0.1120840611174818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>171</v>
@@ -8712,19 +8712,19 @@
         <v>169319</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142951</v>
+        <v>146092</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199596</v>
+        <v>199132</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1213305837839736</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.102435874573161</v>
+        <v>0.1046864670816674</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1430264869136087</v>
+        <v>0.1426942213916777</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>17705</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10270</v>
+        <v>9690</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31759</v>
+        <v>31808</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03117361604075949</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01808204323223789</v>
+        <v>0.01706128197699384</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05591809943940566</v>
+        <v>0.05600347712439378</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -8762,19 +8762,19 @@
         <v>23530</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16730</v>
+        <v>16762</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32383</v>
+        <v>31807</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02843360019480417</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0202166909250761</v>
+        <v>0.0202543785093543</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03913104188750132</v>
+        <v>0.03843469886672103</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>52</v>
@@ -8783,19 +8783,19 @@
         <v>41236</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30875</v>
+        <v>31001</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56402</v>
+        <v>56806</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02954876151946776</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02212465426068577</v>
+        <v>0.02221440805791441</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04041681297421987</v>
+        <v>0.04070577482167825</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>456792</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>432566</v>
+        <v>430592</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>476626</v>
+        <v>477347</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8042615517347264</v>
+        <v>0.8042615517347262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7616083163790713</v>
+        <v>0.7581318097849304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8391831766856747</v>
+        <v>0.8404532253725395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1155</v>
@@ -8833,19 +8833,19 @@
         <v>728173</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>709226</v>
+        <v>710435</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>743409</v>
+        <v>743645</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8799081104512858</v>
+        <v>0.8799081104512855</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8570125393551795</v>
+        <v>0.8584738673584456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.898319104889153</v>
+        <v>0.8986032967272254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1610</v>
@@ -8854,19 +8854,19 @@
         <v>1184964</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1153167</v>
+        <v>1154636</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1212914</v>
+        <v>1211434</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8491206546965587</v>
+        <v>0.8491206546965588</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8263358708540587</v>
+        <v>0.8273880727256882</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8691493671387288</v>
+        <v>0.8680884088934834</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>13463</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5724</v>
+        <v>5578</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25752</v>
+        <v>26523</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05675155162454885</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02412989635277269</v>
+        <v>0.02351198995454324</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1085526480189262</v>
+        <v>0.1118025886620991</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>45</v>
@@ -8979,19 +8979,19 @@
         <v>44836</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31633</v>
+        <v>31119</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63319</v>
+        <v>62296</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05321468402685801</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03754377709090877</v>
+        <v>0.0369341910375882</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07515113453145079</v>
+        <v>0.07393716310047914</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>52</v>
@@ -9000,19 +9000,19 @@
         <v>58299</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42960</v>
+        <v>43201</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77700</v>
+        <v>78916</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05399173321799383</v>
+        <v>0.05399173321799382</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03978625403281336</v>
+        <v>0.04000935575788499</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07195949234821157</v>
+        <v>0.0730850863141087</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>6298</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18177</v>
+        <v>20068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02654831055121753</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002987237856159627</v>
+        <v>0.003019209198026704</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0766204123743124</v>
+        <v>0.0845951594700025</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -9050,19 +9050,19 @@
         <v>24675</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15991</v>
+        <v>15911</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36345</v>
+        <v>37121</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02928651247225874</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01897880110140228</v>
+        <v>0.01888416697605445</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0431363602046065</v>
+        <v>0.04405788446634495</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -9071,19 +9071,19 @@
         <v>30973</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20126</v>
+        <v>20630</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45834</v>
+        <v>47500</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0286849299902623</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01863922646240867</v>
+        <v>0.01910545553024311</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04244709036091019</v>
+        <v>0.04399024086043232</v>
       </c>
     </row>
     <row r="26">
@@ -9100,19 +9100,19 @@
         <v>217467</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>201607</v>
+        <v>202115</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>228165</v>
+        <v>228109</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9167001378242337</v>
+        <v>0.9167001378242335</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8498458732948101</v>
+        <v>0.8519878194605945</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9617983144378121</v>
+        <v>0.9615598958756645</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1077</v>
@@ -9121,19 +9121,19 @@
         <v>773041</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>751477</v>
+        <v>753147</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>788494</v>
+        <v>788554</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9174988035008833</v>
+        <v>0.9174988035008832</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8919045864746878</v>
+        <v>0.8938868101116358</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9358390935836277</v>
+        <v>0.9359099332627735</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1179</v>
@@ -9142,19 +9142,19 @@
         <v>990508</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>965277</v>
+        <v>968877</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1009034</v>
+        <v>1010474</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9173233367917437</v>
+        <v>0.9173233367917439</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8939565546823168</v>
+        <v>0.897290125098023</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9344799054213497</v>
+        <v>0.9358134476950285</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>291377</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>254880</v>
+        <v>258371</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>329563</v>
+        <v>330625</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08469875198100174</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07408986814533515</v>
+        <v>0.07510451646296436</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09579905959881591</v>
+        <v>0.0961076781829802</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>356</v>
@@ -9267,19 +9267,19 @@
         <v>281047</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>251008</v>
+        <v>249919</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>312507</v>
+        <v>313700</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07748595199350322</v>
+        <v>0.07748595199350321</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0692039887608539</v>
+        <v>0.06890371196521054</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08615959701109753</v>
+        <v>0.08648847166616463</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>596</v>
@@ -9288,19 +9288,19 @@
         <v>572424</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>523063</v>
+        <v>523900</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>623198</v>
+        <v>623268</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08099696557665365</v>
+        <v>0.08099696557665363</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07401240392064844</v>
+        <v>0.07413096659264931</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08818142267064338</v>
+        <v>0.08819125090367157</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>172661</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>146559</v>
+        <v>147515</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>200782</v>
+        <v>204511</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05018986344877753</v>
+        <v>0.05018986344877754</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04260252895348802</v>
+        <v>0.04288033484722197</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05836415562466971</v>
+        <v>0.05944836307242001</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>257</v>
@@ -9338,19 +9338,19 @@
         <v>173462</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>152667</v>
+        <v>151816</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>198087</v>
+        <v>197739</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04782427705233561</v>
+        <v>0.04782427705233559</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04209098545916642</v>
+        <v>0.04185634141092416</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05461332527038837</v>
+        <v>0.05451757503943477</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>422</v>
@@ -9359,19 +9359,19 @@
         <v>346123</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>314658</v>
+        <v>315354</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>380932</v>
+        <v>386733</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04897578631148864</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04452347013359734</v>
+        <v>0.04462204465878193</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05390123550840092</v>
+        <v>0.0547220597953184</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>2976116</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2928938</v>
+        <v>2930664</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3015967</v>
+        <v>3018965</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8651113845702206</v>
+        <v>0.8651113845702207</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8513975819963522</v>
+        <v>0.8518993211011264</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8766956231998178</v>
+        <v>0.8775670613085715</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4619</v>
@@ -9409,19 +9409,19 @@
         <v>3172565</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3137780</v>
+        <v>3134172</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3209188</v>
+        <v>3208201</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8746897709541612</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.865099368544463</v>
+        <v>0.8641045243004548</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8847867737037635</v>
+        <v>0.8845145415949789</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7512</v>
@@ -9430,19 +9430,19 @@
         <v>6148681</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6088649</v>
+        <v>6087823</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6208295</v>
+        <v>6203900</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8700272481118577</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.861532893466571</v>
+        <v>0.8614160009812145</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.878462549943875</v>
+        <v>0.8778405813977197</v>
       </c>
     </row>
     <row r="31">
